--- a/data/90_articles_BB.xlsx
+++ b/data/90_articles_BB.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ufo/Downloads/Dawn/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ufo/Downloads/funWithDawn/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4366528-8F20-1048-ACCE-85D582FA7B88}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1F97131B-A325-E749-A88E-848AABC09488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{84490B78-9A81-0445-A57B-3B3CB5E3FEFD}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="190">
   <si>
     <t>Article</t>
   </si>
@@ -336,6 +336,273 @@
   </si>
   <si>
     <t>Jan '20 #1 Eternal and Universal</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2015/12/revising-your-book-eleven-ways-to-take-a-new-look-at-your-story/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2015/12/the-key-to-great-writing/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2016/01/take-your-self-out-of-your-fiction/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2016/02/build-your-writing-muscles/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2016/03/simple-shapes-of-stories/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2016/04/six-things-you-need-to-write-a-book/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2016/05/make-peace-with-your-inner-plotter-and-pantser/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2016/06/tightening-your-cause-effect-chain-with-and-so/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2016/06/what-kind-of-writer-are-you/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2016/07/getting-good-feedback-from-beta-readers/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2016/08/how-to-be-a-good-beta-reader/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2016/08/lesson-in-storytelling-ultimate-dog-tease/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2016/09/how-to-fail-as-a-writer/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2016/10/how-to-improve-writing-by-not-writing/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2016/10/abandon-your-draft-and-become-writer/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2016/11/why-you-should-read-about-writing/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2016/11/six-writing-formats-every-fiction-writer-should-try/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2016/11/four-things-when-you-write-your-memoir/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2016/12/micro-memoir/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2016/12/six-essential-book-descriptions/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2017/02/one-thing-absolutely-need-in-your-book/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2017/01/plotting-the-emotional-map-of-your-book/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2017/01/the-mokita-of-your-book/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2017/02/love-story-or-romance-novel/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2017/02/on-purpose-writing/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2017/03/tangential-rambling-or-missing-content/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2017/03/finding-your-voice/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2017/04/bracket-shorthand-draft-with-lightning-speed/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2017/04/number-one-enemy-of-the-writer/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2017/05/yin-yang-of-great-fiction/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2017/05/rags-to-riches-riches-to-rags-and-roundtrips/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2017/07/unity-in-writing/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2017/07/center-of-your-book/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2017/08/the-engine-in-your-book/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2017/08/get-that-book-out-of-you-learning-to-write/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2017/09/million-kinds-of-writers-one/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2017/09/great-writers-make-a-contribution/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2017/10/be-your-own-writing-teacher/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2017/11/seven-attributes-of-exquisite-writing/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2017/12/just-better-is-enough/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2017/12/written-fluency/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2018/01/developing-a-distinctive-voice-in-writing/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2018/01/contemplate-yourself-as-a-writer/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2018/03/what-writing-rules-do-you-live-by/#comment-157613</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2018/03/structural-language-is-the-foundation-of-a-great-story/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2018/04/context-is-like-location/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2018/04/distill-and-heighten-your-writing/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2018/05/isolated-sentence-test/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2018/05/does-your-writing-pass-the-slow-read-test/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2018/06/read-study-and-learn-from-free-book-samples/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2018/07/literal-and-figurative-language-in-your-writing/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2018/07/unknown-unknowns-in-writing/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2018/08/the-three-act-structure-formulaic-or-foundational/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2018/08/jewel-words-crux-and-flavor-words/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2018/08/tropes-in-storytelling/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2019/01/absolute-best-books-on-writing/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2018/09/red-pen-praising-the-best-thing-you-can-do-for-a-writer/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2018/09/using-writing-snippets-to-exercise-your-creative-mind/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2018/10/suspension-of-disbelief-edit/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2018/10/why-do-i-need-this/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2018/11/truth-and-narrative-the-two-timelines-of-your-story/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2018/11/filling-the-holes-in-your-story/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2018/12/a-million-jelly-beans-and-no-bowl-facts-and-narrative/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2018/12/storytelling-tip-engineer-your-hook-map/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2019/01/green-light-editing-publication-quality-text/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2019/02/writing-great-dialogue-create-power-moments/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2019/03/more-red-pen-praise/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2019/03/the-art-of-a-flow-board/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2019/03/what-are-your-readers-thinking/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2019/04/take-out-the-trash-in-your-writing/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2019/04/transform-your-writing-with-exquisite-patterns/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2019/05/a-stellar-book-opening-its-not-about-the-weather/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2019/05/how-to-confound-and-frustrate-readers/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2019/06/building-your-scene-quality-map/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2019/06/story-fundamentals-make-a-story-great/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2019/07/is-your-manuscript-ready-for-editing/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2019/07/things-you-might-hear-from-a-developmental-editor/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2019/08/getting-and-interpreting-a-readers-thought-map-of-your-book/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2019/09/the-art-of-the-memoir/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2019/09/crafting-the-perfect-chapter/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2019/10/develop-your-story-by-listening-to-your-cast/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2019/10/do-you-keep-a-short-fiction-journal/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2019/10/creative-leaps-are-the-lifeblood-of-great-writing/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2019/11/creating-a-motion-map-of-your-story/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2019/12/the-value-of-a-great-book-synopsis/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2019/12/scope-of-your-story/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2020/01/edgar-allan-poe-unity-of-effect/</t>
+  </si>
+  <si>
+    <t>https://blog.bookbaby.com/2020/01/eternal-and-universal-topics-in-writing/</t>
   </si>
 </sst>
 </file>
@@ -712,8 +979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC603B4C-9981-2844-848A-1CC439542853}">
   <dimension ref="A1:M93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:L91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -724,1472 +991,1653 @@
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
       <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
       <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
         <v>2</v>
       </c>
-      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
       <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
       <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
         <v>4</v>
       </c>
-      <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
       <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
         <v>5</v>
       </c>
-      <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
       <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
         <v>6</v>
       </c>
-      <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
       <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
         <v>7</v>
       </c>
-      <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>7</v>
       </c>
-      <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
       <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
         <v>9</v>
       </c>
-      <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
       <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
         <v>10</v>
       </c>
-      <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>1</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>11</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>10</v>
       </c>
-      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
       <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
         <v>12</v>
       </c>
-      <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
       <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
         <v>13</v>
       </c>
-      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
       <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
         <v>14</v>
       </c>
-      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
       <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
         <v>15</v>
       </c>
-      <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>1</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>16</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>8</v>
       </c>
-      <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>17</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>8</v>
       </c>
-      <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
       <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
         <v>18</v>
       </c>
-      <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>2</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>19</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>18</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>8</v>
       </c>
-      <c r="L20" s="2"/>
       <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>1</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>20</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>7</v>
       </c>
-      <c r="L21" s="2"/>
       <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
       <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
         <v>21</v>
       </c>
-      <c r="L22" s="2"/>
       <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>1</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>22</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>5</v>
       </c>
-      <c r="L23" s="2"/>
       <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
       <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
         <v>23</v>
       </c>
-      <c r="L24" s="2"/>
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
       <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
         <v>24</v>
       </c>
-      <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
       <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
         <v>25</v>
       </c>
-      <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>1</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>26</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>25</v>
       </c>
-      <c r="L27" s="2"/>
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
       <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
         <v>27</v>
       </c>
-      <c r="L28" s="2"/>
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
       <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
         <v>28</v>
       </c>
-      <c r="L29" s="2"/>
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
       <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
         <v>29</v>
       </c>
-      <c r="L30" s="2"/>
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
       <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
         <v>30</v>
       </c>
-      <c r="L31" s="2"/>
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" t="s">
         <v>41</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>1</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>31</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>5</v>
       </c>
-      <c r="L32" s="2"/>
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" t="s">
         <v>42</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
       <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
         <v>32</v>
       </c>
-      <c r="L33" s="2"/>
       <c r="M33" s="2"/>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" t="s">
         <v>43</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>2</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>33</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>32</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>15</v>
       </c>
-      <c r="L34" s="2"/>
       <c r="M34" s="2"/>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
       <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
         <v>34</v>
       </c>
-      <c r="L35" s="2"/>
       <c r="M35" s="2"/>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" t="s">
         <v>45</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
       <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
         <v>35</v>
       </c>
-      <c r="L36" s="2"/>
       <c r="M36" s="2"/>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" t="s">
         <v>46</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>2</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>36</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>9</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>7</v>
       </c>
-      <c r="L37" s="2"/>
       <c r="M37" s="2"/>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" t="s">
         <v>47</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
       <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
         <v>37</v>
       </c>
-      <c r="L38" s="2"/>
       <c r="M38" s="2"/>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s">
         <v>48</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>2</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>38</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>36</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>16</v>
       </c>
-      <c r="L39" s="2"/>
       <c r="M39" s="2"/>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" t="s">
         <v>49</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
       <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
         <v>39</v>
       </c>
-      <c r="L40" s="2"/>
       <c r="M40" s="2"/>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" t="s">
         <v>50</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>2</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>40</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>32</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>10</v>
       </c>
-      <c r="L41" s="2"/>
       <c r="M41" s="2"/>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" t="s">
         <v>51</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>3</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>41</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>2</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>34</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>27</v>
       </c>
-      <c r="L42" s="2"/>
       <c r="M42" s="2"/>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" t="s">
         <v>52</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>1</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>42</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>27</v>
       </c>
-      <c r="L43" s="2"/>
       <c r="M43" s="2"/>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" t="s">
         <v>53</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>6</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>43</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>36</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>9</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>13</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>7</v>
       </c>
-      <c r="H44">
+      <c r="I44">
         <v>3</v>
       </c>
-      <c r="I44">
+      <c r="J44">
         <v>42</v>
       </c>
-      <c r="L44" s="2"/>
       <c r="M44" s="2"/>
     </row>
     <row r="45" spans="1:13">
-      <c r="A45" t="s">
+      <c r="B45" t="s">
         <v>54</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>3</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>44</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>24</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>8</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>32</v>
       </c>
-      <c r="L45" s="2"/>
       <c r="M45" s="2"/>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
+        <v>145</v>
+      </c>
+      <c r="B46" t="s">
         <v>55</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>4</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>45</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>13</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>9</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>36</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>16</v>
       </c>
-      <c r="L46" s="2"/>
       <c r="M46" s="2"/>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" t="s">
         <v>56</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
       <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
         <v>46</v>
       </c>
-      <c r="L47" s="2"/>
       <c r="M47" s="2"/>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" t="s">
         <v>57</v>
       </c>
-      <c r="B48">
-        <v>0</v>
-      </c>
       <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
         <v>47</v>
       </c>
-      <c r="L48" s="2"/>
       <c r="M48" s="2"/>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
+        <v>148</v>
+      </c>
+      <c r="B49" t="s">
         <v>58</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>1</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>48</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>3</v>
       </c>
-      <c r="L49" s="2"/>
       <c r="M49" s="2"/>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" t="s">
         <v>59</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>1</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>49</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>3</v>
       </c>
-      <c r="L50" s="2"/>
       <c r="M50" s="2"/>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
+        <v>149</v>
+      </c>
+      <c r="B51" t="s">
         <v>60</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
       <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
         <v>50</v>
       </c>
-      <c r="L51" s="2"/>
       <c r="M51" s="2"/>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" t="s">
         <v>61</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>1</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>51</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>50</v>
       </c>
-      <c r="L52" s="2"/>
       <c r="M52" s="2"/>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" t="s">
         <v>62</v>
       </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
       <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
         <v>52</v>
       </c>
-      <c r="L53" s="2"/>
       <c r="M53" s="2"/>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" t="s">
         <v>63</v>
       </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
       <c r="C54">
+        <v>0</v>
+      </c>
+      <c r="D54">
         <v>53</v>
       </c>
-      <c r="L54" s="2"/>
       <c r="M54" s="2"/>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
+        <v>153</v>
+      </c>
+      <c r="B55" t="s">
         <v>64</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>1</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>54</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>44</v>
       </c>
-      <c r="L55" s="2"/>
       <c r="M55" s="2"/>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
+        <v>154</v>
+      </c>
+      <c r="B56" t="s">
         <v>65</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>3</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>55</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>44</v>
       </c>
-      <c r="E56">
+      <c r="F56">
         <v>8</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>12</v>
       </c>
-      <c r="L56" s="2"/>
       <c r="M56" s="2"/>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
+        <v>155</v>
+      </c>
+      <c r="B57" t="s">
         <v>66</v>
       </c>
-      <c r="B57">
-        <v>0</v>
-      </c>
       <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
         <v>56</v>
       </c>
-      <c r="L57" s="2"/>
       <c r="M57" s="2"/>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
+        <v>156</v>
+      </c>
+      <c r="B58" t="s">
         <v>67</v>
       </c>
-      <c r="B58">
-        <v>0</v>
-      </c>
       <c r="C58">
+        <v>0</v>
+      </c>
+      <c r="D58">
         <v>57</v>
       </c>
-      <c r="L58" s="2"/>
       <c r="M58" s="2"/>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
+        <v>157</v>
+      </c>
+      <c r="B59" t="s">
         <v>68</v>
       </c>
-      <c r="B59">
-        <v>0</v>
-      </c>
       <c r="C59">
+        <v>0</v>
+      </c>
+      <c r="D59">
         <v>58</v>
       </c>
-      <c r="L59" s="2"/>
       <c r="M59" s="2"/>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
+        <v>158</v>
+      </c>
+      <c r="B60" t="s">
         <v>69</v>
       </c>
-      <c r="B60">
-        <v>0</v>
-      </c>
       <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
         <v>59</v>
       </c>
-      <c r="L60" s="2"/>
       <c r="M60" s="2"/>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" t="s">
         <v>70</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>3</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>60</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>4</v>
       </c>
-      <c r="E61">
+      <c r="F61">
         <v>41</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>42</v>
       </c>
-      <c r="L61" s="2"/>
       <c r="M61" s="2"/>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" t="s">
         <v>71</v>
       </c>
-      <c r="B62">
-        <v>0</v>
-      </c>
       <c r="C62">
+        <v>0</v>
+      </c>
+      <c r="D62">
         <v>61</v>
       </c>
-      <c r="L62" s="2"/>
       <c r="M62" s="2"/>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
+        <v>161</v>
+      </c>
+      <c r="B63" t="s">
         <v>72</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>4</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>62</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>61</v>
       </c>
-      <c r="E63">
+      <c r="F63">
         <v>25</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>44</v>
       </c>
-      <c r="G63">
+      <c r="H63">
         <v>46</v>
       </c>
-      <c r="L63" s="2"/>
       <c r="M63" s="2"/>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" t="s">
         <v>73</v>
       </c>
-      <c r="B64">
-        <v>0</v>
-      </c>
       <c r="C64">
+        <v>0</v>
+      </c>
+      <c r="D64">
         <v>63</v>
       </c>
-      <c r="L64" s="2"/>
       <c r="M64" s="2"/>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
+        <v>163</v>
+      </c>
+      <c r="B65" t="s">
         <v>74</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>2</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>64</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>62</v>
       </c>
-      <c r="E65">
+      <c r="F65">
         <v>63</v>
       </c>
-      <c r="L65" s="2"/>
       <c r="M65" s="2"/>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
+        <v>164</v>
+      </c>
+      <c r="B66" t="s">
         <v>75</v>
       </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
       <c r="C66">
+        <v>0</v>
+      </c>
+      <c r="D66">
         <v>65</v>
       </c>
-      <c r="L66" s="2"/>
       <c r="M66" s="2"/>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" t="s">
         <v>76</v>
       </c>
-      <c r="B67">
-        <v>0</v>
-      </c>
       <c r="C67">
+        <v>0</v>
+      </c>
+      <c r="D67">
         <v>66</v>
       </c>
-      <c r="L67" s="2"/>
       <c r="M67" s="2"/>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" t="s">
         <v>77</v>
       </c>
-      <c r="B68">
-        <v>0</v>
-      </c>
       <c r="C68">
+        <v>0</v>
+      </c>
+      <c r="D68">
         <v>67</v>
       </c>
-      <c r="L68" s="2"/>
       <c r="M68" s="2"/>
     </row>
     <row r="69" spans="1:13">
       <c r="A69" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" t="s">
         <v>78</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>1</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>68</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>66</v>
       </c>
-      <c r="L69" s="2"/>
       <c r="M69" s="2"/>
     </row>
     <row r="70" spans="1:13">
       <c r="A70" t="s">
+        <v>168</v>
+      </c>
+      <c r="B70" t="s">
         <v>79</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>3</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>69</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>59</v>
       </c>
-      <c r="E70">
+      <c r="F70">
         <v>66</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>68</v>
       </c>
-      <c r="L70" s="2"/>
       <c r="M70" s="2"/>
     </row>
     <row r="71" spans="1:13">
       <c r="A71" t="s">
+        <v>169</v>
+      </c>
+      <c r="B71" t="s">
         <v>80</v>
       </c>
-      <c r="B71">
-        <v>0</v>
-      </c>
       <c r="C71">
+        <v>0</v>
+      </c>
+      <c r="D71">
         <v>70</v>
       </c>
-      <c r="L71" s="2"/>
       <c r="M71" s="2"/>
     </row>
     <row r="72" spans="1:13">
       <c r="A72" t="s">
+        <v>170</v>
+      </c>
+      <c r="B72" t="s">
         <v>81</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>2</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>71</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>64</v>
       </c>
-      <c r="E72">
+      <c r="F72">
         <v>61</v>
       </c>
-      <c r="L72" s="2"/>
       <c r="M72" s="2"/>
     </row>
     <row r="73" spans="1:13">
       <c r="A73" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" t="s">
         <v>82</v>
       </c>
-      <c r="B73">
-        <v>0</v>
-      </c>
       <c r="C73">
+        <v>0</v>
+      </c>
+      <c r="D73">
         <v>72</v>
       </c>
-      <c r="L73" s="2"/>
       <c r="M73" s="2"/>
     </row>
     <row r="74" spans="1:13">
       <c r="A74" t="s">
+        <v>172</v>
+      </c>
+      <c r="B74" t="s">
         <v>83</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>1</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>73</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>66</v>
       </c>
-      <c r="L74" s="2"/>
       <c r="M74" s="2"/>
     </row>
     <row r="75" spans="1:13">
       <c r="A75" t="s">
+        <v>173</v>
+      </c>
+      <c r="B75" t="s">
         <v>84</v>
       </c>
-      <c r="B75">
-        <v>0</v>
-      </c>
       <c r="C75">
+        <v>0</v>
+      </c>
+      <c r="D75">
         <v>74</v>
       </c>
-      <c r="L75" s="2"/>
       <c r="M75" s="2"/>
     </row>
     <row r="76" spans="1:13">
       <c r="A76" t="s">
+        <v>174</v>
+      </c>
+      <c r="B76" t="s">
         <v>85</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>6</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>75</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>74</v>
       </c>
-      <c r="E76">
+      <c r="F76">
         <v>64</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>5</v>
       </c>
-      <c r="G76">
+      <c r="H76">
         <v>55</v>
       </c>
-      <c r="H76">
+      <c r="I76">
         <v>73</v>
       </c>
-      <c r="I76">
+      <c r="J76">
         <v>66</v>
       </c>
-      <c r="L76" s="2"/>
       <c r="M76" s="2"/>
     </row>
     <row r="77" spans="1:13">
       <c r="A77" t="s">
+        <v>175</v>
+      </c>
+      <c r="B77" t="s">
         <v>86</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>1</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>76</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>68</v>
       </c>
-      <c r="L77" s="2"/>
       <c r="M77" s="2"/>
     </row>
     <row r="78" spans="1:13">
       <c r="A78" t="s">
+        <v>176</v>
+      </c>
+      <c r="B78" t="s">
         <v>87</v>
       </c>
-      <c r="B78">
-        <v>0</v>
-      </c>
       <c r="C78">
+        <v>0</v>
+      </c>
+      <c r="D78">
         <v>77</v>
       </c>
-      <c r="L78" s="2"/>
       <c r="M78" s="2"/>
     </row>
     <row r="79" spans="1:13">
       <c r="A79" t="s">
+        <v>177</v>
+      </c>
+      <c r="B79" t="s">
         <v>88</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>1</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>78</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>34</v>
       </c>
-      <c r="L79" s="2"/>
       <c r="M79" s="2"/>
     </row>
     <row r="80" spans="1:13">
       <c r="A80" t="s">
+        <v>178</v>
+      </c>
+      <c r="B80" t="s">
         <v>89</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>2</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>79</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>32</v>
       </c>
-      <c r="E80">
+      <c r="F80">
         <v>64</v>
       </c>
-      <c r="L80" s="2"/>
       <c r="M80" s="2"/>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
+        <v>179</v>
+      </c>
+      <c r="B81" t="s">
         <v>90</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>8</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>80</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>78</v>
       </c>
-      <c r="E81">
+      <c r="F81">
         <v>61</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>76</v>
       </c>
-      <c r="G81">
+      <c r="H81">
         <v>59</v>
       </c>
-      <c r="H81">
+      <c r="I81">
         <v>69</v>
       </c>
-      <c r="I81">
+      <c r="J81">
         <v>67</v>
       </c>
-      <c r="J81">
+      <c r="K81">
         <v>73</v>
       </c>
-      <c r="K81">
+      <c r="L81">
         <v>2</v>
       </c>
-      <c r="L81" s="2"/>
       <c r="M81" s="2"/>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
+        <v>180</v>
+      </c>
+      <c r="B82" t="s">
         <v>91</v>
       </c>
-      <c r="B82">
-        <v>0</v>
-      </c>
       <c r="C82">
+        <v>0</v>
+      </c>
+      <c r="D82">
         <v>81</v>
       </c>
-      <c r="L82" s="2"/>
       <c r="M82" s="2"/>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
+        <v>181</v>
+      </c>
+      <c r="B83" t="s">
         <v>92</v>
       </c>
-      <c r="B83">
-        <v>0</v>
-      </c>
       <c r="C83">
+        <v>0</v>
+      </c>
+      <c r="D83">
         <v>82</v>
       </c>
-      <c r="L83" s="2"/>
       <c r="M83" s="2"/>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
+        <v>182</v>
+      </c>
+      <c r="B84" t="s">
         <v>93</v>
       </c>
-      <c r="B84">
+      <c r="C84">
         <v>1</v>
       </c>
-      <c r="C84">
+      <c r="D84">
         <v>83</v>
       </c>
-      <c r="D84">
+      <c r="E84">
         <v>63</v>
       </c>
-      <c r="L84" s="2"/>
       <c r="M84" s="2"/>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85" t="s">
         <v>94</v>
       </c>
-      <c r="B85">
+      <c r="C85">
         <v>2</v>
       </c>
-      <c r="C85">
+      <c r="D85">
         <v>84</v>
       </c>
-      <c r="D85">
+      <c r="E85">
         <v>60</v>
       </c>
-      <c r="E85">
+      <c r="F85">
         <v>42</v>
       </c>
-      <c r="L85" s="2"/>
       <c r="M85" s="2"/>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
+        <v>184</v>
+      </c>
+      <c r="B86" t="s">
         <v>95</v>
       </c>
-      <c r="B86">
-        <v>0</v>
-      </c>
       <c r="C86">
+        <v>0</v>
+      </c>
+      <c r="D86">
         <v>85</v>
       </c>
-      <c r="L86" s="2"/>
       <c r="M86" s="2"/>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
+        <v>185</v>
+      </c>
+      <c r="B87" t="s">
         <v>96</v>
       </c>
-      <c r="B87">
+      <c r="C87">
         <v>2</v>
       </c>
-      <c r="C87">
+      <c r="D87">
         <v>86</v>
       </c>
-      <c r="D87">
+      <c r="E87">
         <v>85</v>
       </c>
-      <c r="E87">
+      <c r="F87">
         <v>22</v>
       </c>
-      <c r="L87" s="2"/>
       <c r="M87" s="2"/>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
+        <v>186</v>
+      </c>
+      <c r="B88" t="s">
         <v>97</v>
       </c>
-      <c r="B88">
+      <c r="C88">
         <v>2</v>
       </c>
-      <c r="C88">
+      <c r="D88">
         <v>87</v>
       </c>
-      <c r="D88">
+      <c r="E88">
         <v>84</v>
       </c>
-      <c r="E88">
+      <c r="F88">
         <v>85</v>
       </c>
-      <c r="L88" s="2"/>
       <c r="M88" s="2"/>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
+        <v>187</v>
+      </c>
+      <c r="B89" t="s">
         <v>98</v>
       </c>
-      <c r="B89">
+      <c r="C89">
         <v>2</v>
       </c>
-      <c r="C89">
+      <c r="D89">
         <v>88</v>
       </c>
-      <c r="D89">
+      <c r="E89">
         <v>33</v>
       </c>
-      <c r="E89">
+      <c r="F89">
         <v>24</v>
       </c>
-      <c r="L89" s="2"/>
       <c r="M89" s="2"/>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
+        <v>188</v>
+      </c>
+      <c r="B90" t="s">
         <v>99</v>
       </c>
-      <c r="B90">
+      <c r="C90">
         <v>2</v>
       </c>
-      <c r="C90">
+      <c r="D90">
         <v>89</v>
       </c>
-      <c r="D90">
+      <c r="E90">
         <v>32</v>
       </c>
-      <c r="E90">
+      <c r="F90">
         <v>37</v>
       </c>
-      <c r="L90" s="2"/>
       <c r="M90" s="2"/>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" t="s">
+        <v>189</v>
+      </c>
+      <c r="B91" t="s">
         <v>100</v>
       </c>
-      <c r="B91">
+      <c r="C91">
         <v>2</v>
       </c>
-      <c r="C91">
+      <c r="D91">
         <v>90</v>
       </c>
-      <c r="D91">
+      <c r="E91">
         <v>24</v>
       </c>
-      <c r="E91">
+      <c r="F91">
         <v>68</v>
       </c>
-      <c r="L91" s="2"/>
       <c r="M91" s="2"/>
     </row>
     <row r="92" spans="1:13">
@@ -2219,6 +2667,116 @@
       <c r="M93" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{2D0ABCEF-1001-A94E-A48D-D7117A84C305}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{614FBC6C-201F-2C46-915D-C152AE23FBC2}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{F7A6F36E-072D-634B-A4CB-7B5CB7B9A48B}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{D0C106CA-B2CB-044B-89FD-2B3536D5EECF}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{5C4F007E-8537-DD4A-A69D-E6322161067B}"/>
+    <hyperlink ref="A7" r:id="rId6" xr:uid="{393E44E1-66A1-124E-A473-B867155A04B9}"/>
+    <hyperlink ref="A8" r:id="rId7" xr:uid="{C55503E8-7579-5A4A-B7AE-72C8DD739340}"/>
+    <hyperlink ref="A9" r:id="rId8" xr:uid="{F1B57E0D-CEFF-9548-9C69-08B96BC448FF}"/>
+    <hyperlink ref="A10" r:id="rId9" xr:uid="{BF803A56-E591-1B4C-B520-F1B91D629269}"/>
+    <hyperlink ref="A11" r:id="rId10" xr:uid="{138E4F31-8EFE-2D41-9DA1-73E78FCAA9A2}"/>
+    <hyperlink ref="A12" r:id="rId11" xr:uid="{7FAEA079-E429-2546-983A-54D3986CCF76}"/>
+    <hyperlink ref="A13" r:id="rId12" xr:uid="{C9F29E5E-5E4A-144A-97E8-8DEB9BD48840}"/>
+    <hyperlink ref="A14" r:id="rId13" xr:uid="{A280B493-5FDE-F045-822F-663C4610ECB9}"/>
+    <hyperlink ref="A15" r:id="rId14" xr:uid="{ECAF6BB1-93B3-AF41-9905-4A62F4A04700}"/>
+    <hyperlink ref="A16" r:id="rId15" xr:uid="{A9DA34BF-B614-B24A-AB44-BFB1CCAD0B4C}"/>
+    <hyperlink ref="A17" r:id="rId16" xr:uid="{FB661AD4-39A5-E84E-83AF-980813FCD52D}"/>
+    <hyperlink ref="A18" r:id="rId17" xr:uid="{8825EE41-0058-464C-95B0-5DB52135329D}"/>
+    <hyperlink ref="A19" r:id="rId18" xr:uid="{2137442B-BE4C-C540-BDDC-0F2CD77DD0C2}"/>
+    <hyperlink ref="A20" r:id="rId19" xr:uid="{E393E696-E930-B649-8263-454036B3D428}"/>
+    <hyperlink ref="A21" r:id="rId20" xr:uid="{C4C9E266-0247-DA46-A4E2-0531B5DCE531}"/>
+    <hyperlink ref="A22" r:id="rId21" xr:uid="{95B68AA9-3FD3-BB4A-93C5-69226117C647}"/>
+    <hyperlink ref="A23" r:id="rId22" xr:uid="{611A3F10-E74D-514C-A03B-B3B8187A14DF}"/>
+    <hyperlink ref="A24" r:id="rId23" xr:uid="{AB53FD99-5E71-A74C-9DE2-2BA9F5112F45}"/>
+    <hyperlink ref="A25" r:id="rId24" xr:uid="{72851318-8D76-0049-8BEC-34BF77D5FAD2}"/>
+    <hyperlink ref="A26" r:id="rId25" xr:uid="{4C014433-C986-8948-80ED-3F9C76B11758}"/>
+    <hyperlink ref="A27" r:id="rId26" xr:uid="{F4BA3C63-D542-AF43-BD8A-F1881380B729}"/>
+    <hyperlink ref="A28" r:id="rId27" xr:uid="{7E86E876-A098-A240-AF12-745A567076E0}"/>
+    <hyperlink ref="A29" r:id="rId28" xr:uid="{F3F6F54A-0B07-5B40-B561-C5FE4361378F}"/>
+    <hyperlink ref="A30" r:id="rId29" xr:uid="{D844714E-9669-9F4A-A94A-C05CDDFCC849}"/>
+    <hyperlink ref="A31" r:id="rId30" xr:uid="{CE228D3B-BB72-034E-BDA1-3EDE250EA0F9}"/>
+    <hyperlink ref="A32" r:id="rId31" xr:uid="{28A1C3EB-7BFD-B845-BCD5-ACE3B2B5705F}"/>
+    <hyperlink ref="B32" r:id="rId32" display="http://blog.bookbaby.com/2017/05/rags-to-riches-riches-to-rags-and-roundtrips/" xr:uid="{2F1414CE-14CF-4743-86B6-50AC00B96D6A}"/>
+    <hyperlink ref="A33" r:id="rId33" xr:uid="{798B5286-7F7E-CA4F-B9F5-A2611F552303}"/>
+    <hyperlink ref="B33" r:id="rId34" display="http://blog.bookbaby.com/2017/07/unity-in-writing/" xr:uid="{EF04CBB8-4FC3-384C-9196-6791E0ED0CF1}"/>
+    <hyperlink ref="A34" r:id="rId35" xr:uid="{1B334791-5F16-4044-9BDE-6B999D39D363}"/>
+    <hyperlink ref="B34" r:id="rId36" display="http://blog.bookbaby.com/2017/07/center-of-your-book/" xr:uid="{FD19DBA2-B85B-F047-A5CA-3CFD152E414C}"/>
+    <hyperlink ref="A35" r:id="rId37" xr:uid="{78AC2910-189B-0A46-84B2-8D8D57289C1D}"/>
+    <hyperlink ref="B35" r:id="rId38" display="http://blog.bookbaby.com/2017/08/the-engine-in-your-book/" xr:uid="{224E92EE-D8FF-3646-8059-EAC69AF043F4}"/>
+    <hyperlink ref="A36" r:id="rId39" xr:uid="{F1C39F7A-29EB-4549-8331-8350ECCD8A0E}"/>
+    <hyperlink ref="B36" r:id="rId40" display="http://blog.bookbaby.com/2017/08/get-that-book-out-of-you-learning-to-write/" xr:uid="{CBEA1CEB-603E-EA4C-A5BC-DD5BF987E033}"/>
+    <hyperlink ref="A37" r:id="rId41" xr:uid="{FD0CD570-418D-5F42-BDE1-15B2D925EBF8}"/>
+    <hyperlink ref="B37" r:id="rId42" display="http://blog.bookbaby.com/2017/09/million-kinds-of-writers-one/" xr:uid="{8004FA29-6765-9845-A354-67894E2A94F3}"/>
+    <hyperlink ref="A38" r:id="rId43" xr:uid="{BE043D8F-DD8B-EC4A-94F1-E0F62AF36C1E}"/>
+    <hyperlink ref="A39" r:id="rId44" xr:uid="{DCA85B8A-09E1-B641-BF99-8A9BFD3CD839}"/>
+    <hyperlink ref="B39" r:id="rId45" display="http://blog.bookbaby.com/2017/10/be-your-own-writing-teacher/" xr:uid="{C04ED140-3626-104C-8446-E68C6E69F9D5}"/>
+    <hyperlink ref="A40" r:id="rId46" xr:uid="{F1354B5C-E1DD-9142-82DA-D797FF2B10D3}"/>
+    <hyperlink ref="B40" r:id="rId47" display="http://blog.bookbaby.com/2017/11/seven-attributes-of-exquisite-writing/" xr:uid="{5F93F5C2-F7A8-8A45-AEB2-F465111F942E}"/>
+    <hyperlink ref="A41" r:id="rId48" xr:uid="{E0BF990E-1057-534D-B307-D6A9063CD6F6}"/>
+    <hyperlink ref="A42" r:id="rId49" xr:uid="{312E1DCB-8C4F-C44B-A9E1-400BE834A177}"/>
+    <hyperlink ref="B42" r:id="rId50" display="http://blog.bookbaby.com/2017/12/written-fluency/" xr:uid="{A737C05E-0BF3-A347-B338-740FECC55587}"/>
+    <hyperlink ref="A43" r:id="rId51" xr:uid="{A235F33C-5E4C-1D4F-AD87-59FCB06709F7}"/>
+    <hyperlink ref="B43" r:id="rId52" display="http://blog.bookbaby.com/2018/01/developing-a-distinctive-voice-in-writing/" xr:uid="{4CD4906E-0503-BD4B-928C-67E9399DE10C}"/>
+    <hyperlink ref="A44" r:id="rId53" xr:uid="{34288F5F-C14F-CD40-BCA0-6D52583AD2EC}"/>
+    <hyperlink ref="B44" r:id="rId54" display="http://blog.bookbaby.com/2018/01/contemplate-yourself-as-a-writer/" xr:uid="{564B9202-2EF6-6A41-8B4B-45F83B5A9E98}"/>
+    <hyperlink ref="A46" r:id="rId55" location="comment-157613" display="https://blog.bookbaby.com/2018/03/what-writing-rules-do-you-live-by/ - comment-157613" xr:uid="{DB72ADED-C11A-3749-9C9D-D5792ADD91DD}"/>
+    <hyperlink ref="B46" r:id="rId56" location="comment-157613" display="http://blog.bookbaby.com/2018/03/what-writing-rules-do-you-live-by/ - comment-157613" xr:uid="{A7145689-D8F9-5646-8EC7-AB5F1E17E416}"/>
+    <hyperlink ref="A47" r:id="rId57" xr:uid="{73B74BE1-7CCE-824B-AE16-EDC35F08D62D}"/>
+    <hyperlink ref="A48" r:id="rId58" xr:uid="{7698191C-C616-F748-9AA9-56C2E45F6AD3}"/>
+    <hyperlink ref="A49" r:id="rId59" xr:uid="{9F87CBF7-0320-CF41-AD58-2062A03CDBE4}"/>
+    <hyperlink ref="A50" r:id="rId60" xr:uid="{DFFF5816-065A-5841-86B4-75105354C4D6}"/>
+    <hyperlink ref="A51" r:id="rId61" xr:uid="{669C54CD-FE37-FE49-B095-8727CCF351C6}"/>
+    <hyperlink ref="A52" r:id="rId62" xr:uid="{C7F3159D-A7B1-FB47-A3E9-C75C4231589F}"/>
+    <hyperlink ref="A53" r:id="rId63" xr:uid="{4BFCB535-30F1-FE4A-9E33-B71B8210C5C3}"/>
+    <hyperlink ref="A54" r:id="rId64" xr:uid="{1EE71277-1800-5541-A9EA-67BB5650CD3F}"/>
+    <hyperlink ref="A55" r:id="rId65" xr:uid="{EAB2E612-425F-5440-968B-F77D0E25C2F4}"/>
+    <hyperlink ref="A56" r:id="rId66" xr:uid="{408406B3-A2D5-E24F-9345-D62364FE8D29}"/>
+    <hyperlink ref="A57" r:id="rId67" xr:uid="{77B65329-E077-204D-8992-C44F8072A858}"/>
+    <hyperlink ref="A58" r:id="rId68" xr:uid="{D04231E4-A570-694B-B238-2D33BA0300D8}"/>
+    <hyperlink ref="A59" r:id="rId69" xr:uid="{B50B92F2-52F9-C040-8464-C2C2178F9926}"/>
+    <hyperlink ref="A60" r:id="rId70" xr:uid="{FB4F7932-A9A8-C64F-B50F-4351189354A4}"/>
+    <hyperlink ref="A61" r:id="rId71" xr:uid="{C0D78CA4-BACE-924B-A0D3-260BC9E4C10A}"/>
+    <hyperlink ref="A62" r:id="rId72" xr:uid="{FB3770C4-6995-DF43-ACB7-5F10B061DDD0}"/>
+    <hyperlink ref="A63" r:id="rId73" xr:uid="{B8851E90-E4BB-3E4F-A039-91E37BFE9C39}"/>
+    <hyperlink ref="A64" r:id="rId74" xr:uid="{05B1A25C-258B-9444-8AA9-91377563E7B2}"/>
+    <hyperlink ref="A65" r:id="rId75" xr:uid="{443A667B-3060-C443-9717-5C9E25518D32}"/>
+    <hyperlink ref="A66" r:id="rId76" xr:uid="{6484CED3-BDAA-A142-8B96-E966E9C8D431}"/>
+    <hyperlink ref="A67" r:id="rId77" xr:uid="{B5D7CDCD-528B-4444-A3FB-92D154812ADC}"/>
+    <hyperlink ref="A68" r:id="rId78" xr:uid="{6B4C8697-E2D9-D740-A88D-20F92ABE39ED}"/>
+    <hyperlink ref="A69" r:id="rId79" xr:uid="{A5AB0ADF-7BFF-3441-91E4-27A577E15D5A}"/>
+    <hyperlink ref="A70" r:id="rId80" xr:uid="{2373A063-B1D5-E342-9F9C-EE055CC5F390}"/>
+    <hyperlink ref="A71" r:id="rId81" xr:uid="{265B3FAB-46D9-C047-9801-26A08DAAA08D}"/>
+    <hyperlink ref="A72" r:id="rId82" xr:uid="{3D86384D-71F5-C145-9753-8B803024EF35}"/>
+    <hyperlink ref="A73" r:id="rId83" xr:uid="{E362ADEF-60BE-D34A-A4B1-1A8129133FB7}"/>
+    <hyperlink ref="A74" r:id="rId84" xr:uid="{FD526BD1-6AC6-E34C-B92B-D2F58DC4BD5B}"/>
+    <hyperlink ref="A75" r:id="rId85" xr:uid="{0BAFD041-2B01-FF4E-BF73-3CF9E5C1D54A}"/>
+    <hyperlink ref="A76" r:id="rId86" xr:uid="{101E368D-9C12-0F48-A5EA-CBB5C7C68FE2}"/>
+    <hyperlink ref="A77" r:id="rId87" xr:uid="{6C35CBDE-F12F-9D4C-8EB3-4E127B85D0A0}"/>
+    <hyperlink ref="A78" r:id="rId88" xr:uid="{9238AFEE-EFDA-764B-8FD4-692BA12D07D8}"/>
+    <hyperlink ref="B78" r:id="rId89" display="https://blog.bookbaby.com/2019/06/story-fundamentals-make-a-story-great/" xr:uid="{2495522C-F9AD-3A4F-9313-DD3FDC3BFC94}"/>
+    <hyperlink ref="A79" r:id="rId90" xr:uid="{75870D65-144B-6044-B569-51BF7AA7122D}"/>
+    <hyperlink ref="B79" r:id="rId91" display="https://blog.bookbaby.com/2019/07/is-your-manuscript-ready-for-editing/" xr:uid="{69ED592A-E826-8245-8CC7-7CFF16CDC36B}"/>
+    <hyperlink ref="A80" r:id="rId92" xr:uid="{CAB95701-1952-0347-930C-24748F44ED22}"/>
+    <hyperlink ref="B80" r:id="rId93" display="https://blog.bookbaby.com/2019/07/things-you-might-hear-from-a-developmental-editor/" xr:uid="{55DFB916-8E43-1748-B632-A031C3FB7263}"/>
+    <hyperlink ref="A81" r:id="rId94" xr:uid="{2720CBF4-0A5A-6543-A89E-BCAA01B51D93}"/>
+    <hyperlink ref="B81" r:id="rId95" display="https://blog.bookbaby.com/2019/08/getting-and-interpreting-a-readers-thought-map-of-your-book/" xr:uid="{88F3C405-A09D-CE4B-A5BB-5ADE65233C78}"/>
+    <hyperlink ref="A82" r:id="rId96" xr:uid="{47BAB8D1-C10D-0B4A-8E5A-DE675F351B67}"/>
+    <hyperlink ref="B82" r:id="rId97" display="https://blog.bookbaby.com/2019/09/the-art-of-the-memoir/" xr:uid="{FEAF6DC9-D6BA-E646-AF7A-1D2ABCF40C13}"/>
+    <hyperlink ref="A83" r:id="rId98" xr:uid="{CC860FD4-B1D5-1E4E-BAB0-57130C5F2B64}"/>
+    <hyperlink ref="B83" r:id="rId99" display="https://blog.bookbaby.com/2019/09/crafting-the-perfect-chapter/" xr:uid="{B4DAEE35-8B5F-6B4F-9AFD-1CA0581662D7}"/>
+    <hyperlink ref="A84" r:id="rId100" xr:uid="{71114234-1BD1-334C-998D-21F5F10A5CF2}"/>
+    <hyperlink ref="B84" r:id="rId101" display="https://blog.bookbaby.com/2019/10/develop-your-story-by-listening-to-your-cast/" xr:uid="{A08FC158-9CF5-B04B-8AD5-B30E5EE21E7E}"/>
+    <hyperlink ref="A85" r:id="rId102" xr:uid="{C9FCBEB2-26E4-CE47-A1E5-8106654506E8}"/>
+    <hyperlink ref="A86" r:id="rId103" xr:uid="{F4925247-3FEC-664C-A75D-A63C39BF4D48}"/>
+    <hyperlink ref="A87" r:id="rId104" xr:uid="{C52326BB-0113-CA43-AD71-D3261FB27644}"/>
+    <hyperlink ref="A88" r:id="rId105" xr:uid="{8F9497B2-256F-B34F-BEB3-CA8723153B5D}"/>
+    <hyperlink ref="A89" r:id="rId106" xr:uid="{03610534-96A5-544F-B2D2-D4ACAC74D416}"/>
+    <hyperlink ref="A90" r:id="rId107" xr:uid="{A4E06145-0A17-A940-AE14-483B771DF903}"/>
+    <hyperlink ref="A91" r:id="rId108" xr:uid="{E2675A36-A53B-7F43-AE50-3C4116CB91AD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>